--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2600370209943</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.55000000000014</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>24.22809649842574</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.10555953090583</v>
+        <v>24.55844691287496</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.31694680553867</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.54711261803086</v>
+        <v>26.69791430547143</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>156.3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.505</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>154.055</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>149.7249999999994</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999915</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999917</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999899</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999898</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999872</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0099999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7849999999995</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8049999999993</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3099999999993</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.994999999999</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000002</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000002</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4949999999998</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000002</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000002</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4949999999998</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.505</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.055</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.985000000000154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.230000000000182</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9.165000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>11.49499999999974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.409999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5049999999999955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.055000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,56 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
